--- a/biology/Botanique/Tempranillo/Tempranillo.xlsx
+++ b/biology/Botanique/Tempranillo/Tempranillo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le tempranillo est un cépage de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tempranillo est d’origine espagnole. Son nom vient de l’espagnol temprano qui signifie tôt en référence à la maturité précoce du cépage.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc à liseré carminé.
 Jeunes feuilles duveteuses, orangées à bronzées.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque moyenne : 20 jours après le chasselas. Il arrive à maturité environ deux semaines avant le cépage le plus cultivé d’Espagne, à savoir le Grenache.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est cylindrique, parfois ailée, longue, étroite et compacte. La chair est peu juteuse. Le cépage est moyennement vigoureux. Il est assez sensible à la pourriture grise, au court-noué, à l'oïdium et au mildiou.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tempranillo est connu aussi sous les noms suivants :
 Aldepenas
